--- a/NNVC.xlsx
+++ b/NNVC.xlsx
@@ -74,7 +74,7 @@
     <t>Equity income in investee</t>
   </si>
   <si>
-    <t>Extraordinary Gain</t>
+    <t>Miscellaneous</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -1469,11 +1469,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1484,6 +1486,15 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
